--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsinyu/CXM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\practice\CXM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31340F96-48CA-B541-8B22-5D245CC40355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8E9869-085A-4DA2-9B11-8A159BB4C990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="840" windowWidth="30240" windowHeight="17640" activeTab="1" xr2:uid="{1BF01FEF-89A8-3D45-8920-1E987DEF2A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF01FEF-89A8-3D45-8920-1E987DEF2A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="總覽" sheetId="1" r:id="rId1"/>
-    <sheet name="TBLRECORD_NOTE" sheetId="11" r:id="rId2"/>
-    <sheet name="TBLCUSTOMER" sheetId="2" r:id="rId3"/>
-    <sheet name="TBLEMPLOYEE" sheetId="3" r:id="rId4"/>
-    <sheet name="TBLFUNC_LIST" sheetId="4" r:id="rId5"/>
-    <sheet name="TBLKM" sheetId="5" r:id="rId6"/>
-    <sheet name="TBLMOTOCYCLE" sheetId="6" r:id="rId7"/>
-    <sheet name="TBLRECORD" sheetId="7" r:id="rId8"/>
-    <sheet name="TBLROLE" sheetId="8" r:id="rId9"/>
-    <sheet name="TBLSTOCK" sheetId="9" r:id="rId10"/>
-    <sheet name="TBLFIX_ITEM" sheetId="10" r:id="rId11"/>
+    <sheet name="詳細資料" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="129">
   <si>
     <t>資料表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,14 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Plate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客戶姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出生日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,26 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RPlate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,10 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工時</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,13 +511,45 @@
   <si>
     <t>已付金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位型別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允許Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBLCUSTOMER</t>
+  </si>
+  <si>
+    <t>TBLEMPLOYEE</t>
+  </si>
+  <si>
+    <t>TBLFUNC_LIST</t>
+  </si>
+  <si>
+    <t>TBLKM</t>
+  </si>
+  <si>
+    <t>TBLMOTOCYCLE</t>
+  </si>
+  <si>
+    <t>TBLROLE</t>
+  </si>
+  <si>
+    <t>TBLSTOCK</t>
+  </si>
+  <si>
+    <t>TBLFIX_ITEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -589,33 +576,61 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF212121"/>
-      <name val="Menlo"/>
+      <name val="Microsoft JhengHei Light"/>
       <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -627,20 +642,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,9 +683,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -702,7 +723,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -808,7 +829,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -950,7 +971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -960,16 +981,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F195BE-9AC7-D446-A629-51BA5BEE7A11}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -977,90 +998,90 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="TBLCUSTOMER!A1" display="TBLCUSTOMER" xr:uid="{4C9ADDA7-30B6-1940-AA16-41481B6A6C66}"/>
+    <hyperlink ref="A2" location="詳細資料!A1" display="TBLCUSTOMER" xr:uid="{4C9ADDA7-30B6-1940-AA16-41481B6A6C66}"/>
     <hyperlink ref="A3" location="TBLEMPLOYEE!A1" display="TBLEMPLOYEE" xr:uid="{C8C56FFF-9555-E247-956C-A26DFC352D41}"/>
     <hyperlink ref="A4" location="TBLFUNC_LIST!A1" display="TBLFUNC_LIST" xr:uid="{56BB26E0-4917-FC41-93FB-11ADB7F9F24B}"/>
     <hyperlink ref="A5" location="TBLKM!A1" display="TBLKM" xr:uid="{8E94BCCC-50EA-EC4E-BFF2-F5A8CF2B924C}"/>
@@ -1070,755 +1091,842 @@
     <hyperlink ref="A9" location="TBLSTOCK!A1" display="TBLSTOCK" xr:uid="{B23ECF87-E913-7C48-ABA7-02352B9BB846}"/>
     <hyperlink ref="A10" location="TBLFIX_ITEM!A1" display="TBLFIX_ITEM" xr:uid="{E044FE63-E4FA-9949-B09F-ED7134169E0C}"/>
     <hyperlink ref="A11" location="TBLRECORD_NOTE!A1" display="TBLRECORD_NOTE" xr:uid="{124DB2B2-B026-0449-8DDD-0D2DCD6D90E7}"/>
+    <hyperlink ref="A2:A11" location="詳細資料!A1" display="TBLCUSTOMER" xr:uid="{74FF3707-7E8C-4DC5-AAE2-46E71A422EF8}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC9B70C-989B-0A45-96F0-EE7DBD0C0DCC}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB763CD-7573-5D4D-A5D5-45DCFEF0D6E7}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51839ECC-A7F6-FD4A-BECD-2290D249A257}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B3E901-D673-D04F-857B-3A7E8A6FD665}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006A3326-3541-6B47-BAD3-AF90FB740832}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="C50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E9C531-B738-644D-9870-B5BCC569BD79}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="C53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C55" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBD9A02-67FA-F145-B2D7-888C9CDC8315}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C60" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95304991-5078-C147-8867-0D2B23CEA91D}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4865036-F0C8-3F49-A5DA-C1157F8F21F8}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DCB7A4-C1BE-D04C-BAD1-4E36A79A3E4C}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
